--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,59 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,8 +901,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -957,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -966,10 +992,13 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -986,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -995,10 +1024,13 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,8 +1136,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1115,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1126,37 +1168,43 @@
       <c r="K23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1202,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1213,8 +1264,11 @@
       <c r="K26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1242,8 +1296,11 @@
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1405,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -1416,8 +1488,11 @@
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1463,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -1474,42 +1552,48 @@
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1995,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,8 +2157,11 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2042,24 +2178,27 @@
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
@@ -2071,19 +2210,22 @@
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,13 +2381,16 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
@@ -2245,19 +2402,22 @@
         <v>500</v>
       </c>
       <c r="H66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2400,22 +2573,25 @@
         <v>-1300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H72" s="3">
         <v>-1200</v>
       </c>
       <c r="I72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1000</v>
       </c>
       <c r="K72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,13 +2683,16 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
         <v>-500</v>
@@ -2519,19 +2704,22 @@
         <v>-500</v>
       </c>
       <c r="H76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>
       </c>
       <c r="J76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2611,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -2622,8 +2816,11 @@
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2827,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -2836,10 +3052,13 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3114,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -3123,10 +3368,13 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3181,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,67 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +756,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +794,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +832,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,11 +944,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -922,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,8 +1017,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -986,19 +1040,25 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1018,19 +1078,25 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1143,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,16 +1181,22 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1139,8 +1219,14 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1160,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1171,8 +1257,14 @@
       <c r="L23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1197,14 +1289,20 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,8 +1333,14 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1256,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1267,8 +1371,14 @@
       <c r="L26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1288,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1299,8 +1409,14 @@
       <c r="L27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,8 +1599,14 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1480,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1491,8 +1637,14 @@
       <c r="L33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1675,14 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1544,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1555,45 +1713,57 @@
       <c r="L35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1792,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1940,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1978,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +2016,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +2054,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +2092,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2282,14 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2356,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,16 +2390,22 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>100</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2160,16 +2428,22 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
@@ -2181,19 +2455,25 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2201,10 +2481,10 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
@@ -2213,19 +2493,25 @@
         <v>500</v>
       </c>
       <c r="I60" s="3">
+        <v>500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2542,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,8 +2694,14 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2393,10 +2709,10 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
@@ -2405,19 +2721,25 @@
         <v>500</v>
       </c>
       <c r="I66" s="3">
+        <v>500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,13 +2900,19 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E72" s="3">
         <v>-1300</v>
@@ -2576,22 +2924,28 @@
         <v>-1300</v>
       </c>
       <c r="H72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,8 +3052,14 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2695,10 +3067,10 @@
         <v>-600</v>
       </c>
       <c r="E76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G76" s="3">
         <v>-500</v>
@@ -2707,19 +3079,25 @@
         <v>-500</v>
       </c>
       <c r="I76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,45 +3128,57 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2808,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -2819,8 +3209,14 @@
       <c r="L81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3453,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3046,19 +3480,25 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3621,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3827,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3362,19 +3854,25 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3903,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3939,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,25 +947,28 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1045,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1055,10 +1082,13 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1093,10 +1123,13 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1183,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,19 +1224,22 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1225,8 +1265,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1263,8 +1306,11 @@
       <c r="N23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1295,14 +1341,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1388,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1377,8 +1429,11 @@
       <c r="N26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1404,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1415,8 +1470,11 @@
       <c r="N27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,8 +1675,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1632,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -1643,8 +1716,11 @@
       <c r="N33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1757,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1708,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -1719,51 +1798,57 @@
       <c r="N35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1880,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1832,8 +1919,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2083,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2411,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,19 +2527,22 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2434,8 +2568,11 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2446,7 +2583,7 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
@@ -2461,19 +2598,22 @@
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2487,7 +2627,7 @@
         <v>600</v>
       </c>
       <c r="G60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
@@ -2499,19 +2639,22 @@
         <v>500</v>
       </c>
       <c r="K60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
+        <v>400</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,8 +2855,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2715,7 +2873,7 @@
         <v>600</v>
       </c>
       <c r="G66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H66" s="3">
         <v>500</v>
@@ -2727,19 +2885,22 @@
         <v>500</v>
       </c>
       <c r="K66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
       </c>
       <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,8 +3077,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2915,7 +3089,7 @@
         <v>-1400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F72" s="3">
         <v>-1300</v>
@@ -2930,22 +3104,25 @@
         <v>-1300</v>
       </c>
       <c r="J72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K72" s="3">
         <v>-1200</v>
       </c>
       <c r="L72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1000</v>
       </c>
       <c r="N72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,8 +3241,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3073,7 +3259,7 @@
         <v>-600</v>
       </c>
       <c r="G76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H76" s="3">
         <v>-500</v>
@@ -3085,19 +3271,22 @@
         <v>-500</v>
       </c>
       <c r="K76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3323,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3204,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -3215,8 +3410,11 @@
       <c r="N81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3673,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3486,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -3495,10 +3712,13 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4076,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3860,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -3869,10 +4115,13 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4158,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1076,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1085,10 +1111,13 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1126,10 +1155,13 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,11 +1277,11 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1268,8 +1307,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1298,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1309,8 +1351,11 @@
       <c r="O23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1344,14 +1389,17 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +1439,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1432,8 +1483,11 @@
       <c r="O26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1462,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1473,8 +1527,11 @@
       <c r="O27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1678,8 +1747,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1708,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -1719,8 +1791,11 @@
       <c r="O33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,8 +1835,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1790,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -1801,54 +1879,60 @@
       <c r="O35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2541,11 +2674,11 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -2571,8 +2704,11 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2586,7 +2722,7 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
@@ -2601,19 +2737,22 @@
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2630,7 +2769,7 @@
         <v>600</v>
       </c>
       <c r="H60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I60" s="3">
         <v>500</v>
@@ -2642,19 +2781,22 @@
         <v>500</v>
       </c>
       <c r="L60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,8 +3012,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2876,7 +3033,7 @@
         <v>600</v>
       </c>
       <c r="H66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I66" s="3">
         <v>500</v>
@@ -2888,19 +3045,22 @@
         <v>500</v>
       </c>
       <c r="L66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,8 +3250,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3092,7 +3265,7 @@
         <v>-1400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G72" s="3">
         <v>-1300</v>
@@ -3107,22 +3280,25 @@
         <v>-1300</v>
       </c>
       <c r="K72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="L72" s="3">
         <v>-1200</v>
       </c>
       <c r="M72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1000</v>
       </c>
       <c r="O72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,8 +3426,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3262,7 +3447,7 @@
         <v>-600</v>
       </c>
       <c r="H76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I76" s="3">
         <v>-500</v>
@@ -3274,19 +3459,22 @@
         <v>-500</v>
       </c>
       <c r="L76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
       </c>
       <c r="N76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,54 +3514,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3402,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -3413,8 +3607,11 @@
       <c r="O81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3706,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -3715,10 +3931,13 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4109,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -4118,10 +4363,13 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1114,10 +1141,13 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1158,10 +1188,13 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,13 +1303,16 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1280,11 +1320,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1310,8 +1350,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1354,8 +1397,11 @@
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1392,14 +1438,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1475,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1486,8 +1538,11 @@
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1519,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1783,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1871,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2677,11 +2811,11 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2725,7 +2862,7 @@
         <v>600</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
@@ -2740,24 +2877,27 @@
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
@@ -2772,7 +2912,7 @@
         <v>600</v>
       </c>
       <c r="I60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
@@ -2784,19 +2924,22 @@
         <v>500</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,13 +3170,16 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>600</v>
@@ -3036,7 +3194,7 @@
         <v>600</v>
       </c>
       <c r="I66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>500</v>
@@ -3048,19 +3206,22 @@
         <v>500</v>
       </c>
       <c r="M66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3268,7 +3442,7 @@
         <v>-1400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H72" s="3">
         <v>-1300</v>
@@ -3283,22 +3457,25 @@
         <v>-1300</v>
       </c>
       <c r="L72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="M72" s="3">
         <v>-1200</v>
       </c>
       <c r="N72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1000</v>
       </c>
       <c r="P72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,13 +3612,16 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
         <v>-600</v>
@@ -3450,7 +3636,7 @@
         <v>-600</v>
       </c>
       <c r="I76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J76" s="3">
         <v>-500</v>
@@ -3462,19 +3648,22 @@
         <v>-500</v>
       </c>
       <c r="M76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
       </c>
       <c r="O76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3599,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3925,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -3934,10 +4151,13 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4357,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -4366,10 +4612,13 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1144,10 +1171,13 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1191,10 +1221,13 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,16 +1343,19 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1323,11 +1363,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1389,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1400,8 +1443,11 @@
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1441,14 +1487,17 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1530,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1541,8 +1593,11 @@
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1577,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1893,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1859,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1953,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2814,11 +2948,11 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -2844,13 +2978,16 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
@@ -2865,7 +3002,7 @@
         <v>600</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
@@ -2880,19 +3017,22 @@
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,7 +3040,7 @@
         <v>700</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
@@ -2915,7 +3055,7 @@
         <v>600</v>
       </c>
       <c r="J60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
@@ -2927,19 +3067,22 @@
         <v>500</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,7 +3340,7 @@
         <v>700</v>
       </c>
       <c r="E66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
@@ -3197,7 +3355,7 @@
         <v>600</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
@@ -3209,19 +3367,22 @@
         <v>500</v>
       </c>
       <c r="N66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3445,7 +3619,7 @@
         <v>-1400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
@@ -3460,22 +3634,25 @@
         <v>-1300</v>
       </c>
       <c r="M72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="N72" s="3">
         <v>-1200</v>
       </c>
       <c r="O72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3624,7 +3810,7 @@
         <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F76" s="3">
         <v>-600</v>
@@ -3639,7 +3825,7 @@
         <v>-600</v>
       </c>
       <c r="J76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K76" s="3">
         <v>-500</v>
@@ -3651,19 +3837,22 @@
         <v>-500</v>
       </c>
       <c r="N76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3797,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4145,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -4154,10 +4371,13 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4606,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -4615,10 +4861,13 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1165,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1174,10 +1201,13 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1224,10 +1254,13 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,8 +1397,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1366,11 +1406,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1396,8 +1436,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1435,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1446,8 +1489,11 @@
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1490,14 +1536,17 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1595,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1585,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1596,8 +1648,11 @@
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1646,8 +1701,11 @@
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,8 +1966,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1935,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -1946,8 +2019,11 @@
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2072,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2035,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2046,63 +2125,69 @@
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2951,11 +3085,11 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2990,7 +3127,7 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
@@ -3005,7 +3142,7 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -3020,19 +3157,22 @@
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3043,7 +3183,7 @@
         <v>700</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
@@ -3058,7 +3198,7 @@
         <v>600</v>
       </c>
       <c r="K60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
@@ -3070,19 +3210,22 @@
         <v>500</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3486,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3343,7 +3501,7 @@
         <v>700</v>
       </c>
       <c r="F66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
@@ -3358,7 +3516,7 @@
         <v>600</v>
       </c>
       <c r="K66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
@@ -3370,19 +3528,22 @@
         <v>500</v>
       </c>
       <c r="O66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
       </c>
       <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3772,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3622,7 +3796,7 @@
         <v>-1400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J72" s="3">
         <v>-1300</v>
@@ -3637,22 +3811,25 @@
         <v>-1300</v>
       </c>
       <c r="N72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="O72" s="3">
         <v>-1200</v>
       </c>
       <c r="P72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1000</v>
       </c>
       <c r="R72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3984,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3813,7 +3999,7 @@
         <v>-700</v>
       </c>
       <c r="F76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G76" s="3">
         <v>-600</v>
@@ -3828,7 +4014,7 @@
         <v>-600</v>
       </c>
       <c r="K76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="L76" s="3">
         <v>-500</v>
@@ -3840,19 +4026,22 @@
         <v>-500</v>
       </c>
       <c r="O76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4090,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3995,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4006,8 +4201,11 @@
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4365,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4374,10 +4591,13 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4855,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -4864,10 +5110,13 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1204,10 +1230,13 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1257,10 +1286,13 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1333,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1400,8 +1439,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1409,11 +1448,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1439,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1492,8 +1534,11 @@
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1539,14 +1584,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1640,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1651,8 +1702,11 @@
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1693,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1704,8 +1758,11 @@
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1969,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2011,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2022,8 +2094,11 @@
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2117,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2128,66 +2206,72 @@
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2281,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3065,34 +3195,37 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3118,8 +3251,11 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3130,7 +3266,7 @@
         <v>700</v>
       </c>
       <c r="F59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
@@ -3145,7 +3281,7 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
@@ -3160,19 +3296,22 @@
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3186,7 +3325,7 @@
         <v>700</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
@@ -3201,7 +3340,7 @@
         <v>600</v>
       </c>
       <c r="L60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
@@ -3213,19 +3352,22 @@
         <v>500</v>
       </c>
       <c r="P60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3504,7 +3661,7 @@
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>600</v>
@@ -3519,7 +3676,7 @@
         <v>600</v>
       </c>
       <c r="L66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>500</v>
@@ -3531,19 +3688,22 @@
         <v>500</v>
       </c>
       <c r="P66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,13 +3945,16 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E72" s="3">
         <v>-1400</v>
@@ -3799,7 +3972,7 @@
         <v>-1400</v>
       </c>
       <c r="J72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K72" s="3">
         <v>-1300</v>
@@ -3814,22 +3987,25 @@
         <v>-1300</v>
       </c>
       <c r="O72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="P72" s="3">
         <v>-1200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-1000</v>
       </c>
       <c r="S72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4002,7 +4187,7 @@
         <v>-700</v>
       </c>
       <c r="G76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H76" s="3">
         <v>-600</v>
@@ -4017,7 +4202,7 @@
         <v>-600</v>
       </c>
       <c r="L76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="M76" s="3">
         <v>-500</v>
@@ -4029,19 +4214,22 @@
         <v>-500</v>
       </c>
       <c r="P76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Q76" s="3">
         <v>-400</v>
       </c>
       <c r="R76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4193,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4204,8 +4398,11 @@
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4585,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -4594,10 +4810,13 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5104,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -5113,10 +5358,13 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +810,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1231,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1224,19 +1278,25 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,19 +1340,25 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1437,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,23 +1522,23 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1481,8 +1561,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1526,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1537,8 +1623,14 @@
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1587,14 +1679,20 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1747,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1694,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -1705,8 +1809,14 @@
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1750,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -1761,8 +1871,14 @@
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2181,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2086,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2097,8 +2243,14 @@
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2305,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2198,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2209,69 +2367,81 @@
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2486,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2544,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2792,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2916,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3288,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3460,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3228,10 +3496,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3254,8 +3522,14 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3269,10 +3543,10 @@
         <v>700</v>
       </c>
       <c r="G59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
@@ -3284,10 +3558,10 @@
         <v>600</v>
       </c>
       <c r="L59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
@@ -3299,19 +3573,25 @@
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3328,10 +3608,10 @@
         <v>700</v>
       </c>
       <c r="H60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -3343,10 +3623,10 @@
         <v>600</v>
       </c>
       <c r="M60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
@@ -3355,19 +3635,25 @@
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
+        <v>500</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3956,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3664,10 +3980,10 @@
         <v>700</v>
       </c>
       <c r="H66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -3679,10 +3995,10 @@
         <v>600</v>
       </c>
       <c r="M66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
@@ -3691,19 +4007,25 @@
         <v>500</v>
       </c>
       <c r="Q66" s="3">
+        <v>500</v>
+      </c>
+      <c r="R66" s="3">
+        <v>500</v>
+      </c>
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4290,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3957,10 +4305,10 @@
         <v>-1500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G72" s="3">
         <v>-1400</v>
@@ -3975,10 +4323,10 @@
         <v>-1400</v>
       </c>
       <c r="K72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="L72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="M72" s="3">
         <v>-1300</v>
@@ -3990,22 +4338,28 @@
         <v>-1300</v>
       </c>
       <c r="P72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4538,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4190,10 +4562,10 @@
         <v>-700</v>
       </c>
       <c r="H76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J76" s="3">
         <v>-600</v>
@@ -4205,10 +4577,10 @@
         <v>-600</v>
       </c>
       <c r="M76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="N76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="O76" s="3">
         <v>-500</v>
@@ -4217,19 +4589,25 @@
         <v>-500</v>
       </c>
       <c r="Q76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4662,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4390,10 +4780,10 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -4401,8 +4791,14 @@
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4804,19 +5238,25 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5352,19 +5844,25 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,13 +1259,14 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1284,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
@@ -1293,10 +1320,13 @@
         <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1355,10 +1385,13 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1477,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1528,8 +1568,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1537,11 +1577,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1567,13 +1607,16 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1618,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1629,8 +1672,11 @@
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1685,14 +1731,17 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,13 +1802,16 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1804,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
@@ -1815,13 +1867,16 @@
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1866,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -1877,8 +1932,11 @@
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2187,13 +2257,16 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2238,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2249,8 +2322,11 @@
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,13 +2387,16 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2362,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2373,75 +2452,81 @@
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,13 +3417,16 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>0</v>
+      <c r="D54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3502,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3528,8 +3662,11 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3549,7 +3686,7 @@
         <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
@@ -3564,7 +3701,7 @@
         <v>600</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
@@ -3579,19 +3716,22 @@
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3614,7 +3754,7 @@
         <v>700</v>
       </c>
       <c r="J60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
@@ -3629,7 +3769,7 @@
         <v>600</v>
       </c>
       <c r="O60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
@@ -3641,19 +3781,22 @@
         <v>500</v>
       </c>
       <c r="S60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
       <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4117,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3986,7 +4144,7 @@
         <v>700</v>
       </c>
       <c r="J66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
@@ -4001,7 +4159,7 @@
         <v>600</v>
       </c>
       <c r="O66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
@@ -4013,19 +4171,22 @@
         <v>500</v>
       </c>
       <c r="S66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
       </c>
       <c r="U66" s="3">
+        <v>400</v>
+      </c>
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4467,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4311,7 +4485,7 @@
         <v>-1500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H72" s="3">
         <v>-1400</v>
@@ -4329,7 +4503,7 @@
         <v>-1400</v>
       </c>
       <c r="M72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="N72" s="3">
         <v>-1300</v>
@@ -4344,22 +4518,25 @@
         <v>-1300</v>
       </c>
       <c r="R72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="S72" s="3">
         <v>-1200</v>
       </c>
       <c r="T72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-1000</v>
       </c>
       <c r="V72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,8 +4727,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4568,7 +4754,7 @@
         <v>-700</v>
       </c>
       <c r="J76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K76" s="3">
         <v>-600</v>
@@ -4583,7 +4769,7 @@
         <v>-600</v>
       </c>
       <c r="O76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="P76" s="3">
         <v>-500</v>
@@ -4595,19 +4781,22 @@
         <v>-500</v>
       </c>
       <c r="S76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="T76" s="3">
         <v>-400</v>
       </c>
       <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,80 +4857,86 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4786,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -4797,8 +4992,11 @@
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5407,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5244,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -5253,10 +5470,13 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5850,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -5859,10 +6105,13 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,13 +1285,14 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1314,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
@@ -1323,10 +1349,13 @@
         <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1379,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
@@ -1388,10 +1417,13 @@
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1480,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1545,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1571,8 +1610,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1580,11 +1619,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1610,13 +1649,16 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1664,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -1675,8 +1717,11 @@
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1734,14 +1779,17 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,13 +1853,16 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1859,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
@@ -1870,13 +1921,16 @@
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1924,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
@@ -1935,8 +1989,11 @@
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2260,13 +2329,16 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2314,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
@@ -2325,8 +2397,11 @@
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,13 +2465,16 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2444,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
@@ -2455,78 +2533,84 @@
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2640,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2900,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2965,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,13 +3542,16 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3600,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3639,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3665,8 +3798,11 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3689,7 +3825,7 @@
         <v>700</v>
       </c>
       <c r="J59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
@@ -3704,7 +3840,7 @@
         <v>600</v>
       </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
@@ -3719,24 +3855,27 @@
         <v>400</v>
       </c>
       <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
@@ -3757,7 +3896,7 @@
         <v>700</v>
       </c>
       <c r="K60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
@@ -3772,7 +3911,7 @@
         <v>600</v>
       </c>
       <c r="P60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
@@ -3784,19 +3923,22 @@
         <v>500</v>
       </c>
       <c r="T60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
       </c>
       <c r="V60" s="3">
+        <v>400</v>
+      </c>
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,13 +4274,16 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
@@ -4147,7 +4304,7 @@
         <v>700</v>
       </c>
       <c r="K66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
@@ -4162,7 +4319,7 @@
         <v>600</v>
       </c>
       <c r="P66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>500</v>
@@ -4174,19 +4331,22 @@
         <v>500</v>
       </c>
       <c r="T66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U66" s="3">
         <v>400</v>
       </c>
       <c r="V66" s="3">
+        <v>400</v>
+      </c>
+      <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4488,7 +4661,7 @@
         <v>-1500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I72" s="3">
         <v>-1400</v>
@@ -4506,7 +4679,7 @@
         <v>-1400</v>
       </c>
       <c r="N72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="O72" s="3">
         <v>-1300</v>
@@ -4521,22 +4694,25 @@
         <v>-1300</v>
       </c>
       <c r="S72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="T72" s="3">
         <v>-1200</v>
       </c>
       <c r="U72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-1000</v>
       </c>
       <c r="W72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,13 +4912,16 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E76" s="3">
         <v>-700</v>
@@ -4757,7 +4942,7 @@
         <v>-700</v>
       </c>
       <c r="K76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L76" s="3">
         <v>-600</v>
@@ -4772,7 +4957,7 @@
         <v>-600</v>
       </c>
       <c r="P76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Q76" s="3">
         <v>-500</v>
@@ -4784,19 +4969,22 @@
         <v>-500</v>
       </c>
       <c r="T76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="U76" s="3">
         <v>-400</v>
       </c>
       <c r="V76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,83 +5048,89 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4984,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
@@ -4995,8 +5189,11 @@
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5464,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -5473,10 +5689,13 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6099,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
@@ -6108,10 +6353,13 @@
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6238,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,112 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +837,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +911,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1338,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1343,19 +1397,25 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1411,19 +1471,25 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1584,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,52 +1658,58 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1652,8 +1732,14 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1709,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
@@ -1720,8 +1806,14 @@
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1782,14 +1874,20 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1954,14 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1913,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
@@ -1924,8 +2028,14 @@
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1981,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
@@ -1992,8 +2102,14 @@
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,8 +2472,14 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2389,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
@@ -2400,8 +2546,14 @@
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2620,14 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2525,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
@@ -2536,81 +2694,93 @@
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2833,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2729,8 +2903,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2977,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3199,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3347,14 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3421,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3791,14 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3925,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3995,14 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3775,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3801,16 +4069,22 @@
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
@@ -3828,10 +4102,10 @@
         <v>700</v>
       </c>
       <c r="K59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
@@ -3843,10 +4117,10 @@
         <v>600</v>
       </c>
       <c r="P59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
@@ -3858,19 +4132,25 @@
         <v>400</v>
       </c>
       <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
+        <v>400</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,10 +4158,10 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
@@ -3899,10 +4179,10 @@
         <v>700</v>
       </c>
       <c r="L60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
@@ -3914,10 +4194,10 @@
         <v>600</v>
       </c>
       <c r="Q60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
@@ -3926,19 +4206,25 @@
         <v>500</v>
       </c>
       <c r="U60" s="3">
+        <v>500</v>
+      </c>
+      <c r="V60" s="3">
+        <v>500</v>
+      </c>
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4291,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4587,14 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,10 +4602,10 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
@@ -4307,10 +4623,10 @@
         <v>700</v>
       </c>
       <c r="L66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>600</v>
@@ -4322,10 +4638,10 @@
         <v>600</v>
       </c>
       <c r="Q66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
@@ -4334,19 +4650,25 @@
         <v>500</v>
       </c>
       <c r="U66" s="3">
+        <v>500</v>
+      </c>
+      <c r="V66" s="3">
+        <v>500</v>
+      </c>
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,13 +4985,19 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E72" s="3">
         <v>-1500</v>
@@ -4664,10 +5012,10 @@
         <v>-1500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="K72" s="3">
         <v>-1400</v>
@@ -4682,10 +5030,10 @@
         <v>-1400</v>
       </c>
       <c r="O72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="P72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="Q72" s="3">
         <v>-1300</v>
@@ -4697,22 +5045,28 @@
         <v>-1300</v>
       </c>
       <c r="T72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5281,14 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,10 +5296,10 @@
         <v>-800</v>
       </c>
       <c r="E76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G76" s="3">
         <v>-700</v>
@@ -4945,10 +5317,10 @@
         <v>-700</v>
       </c>
       <c r="L76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="M76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N76" s="3">
         <v>-600</v>
@@ -4960,10 +5332,10 @@
         <v>-600</v>
       </c>
       <c r="Q76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="R76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="S76" s="3">
         <v>-500</v>
@@ -4972,19 +5344,25 @@
         <v>-500</v>
       </c>
       <c r="U76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5429,93 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5181,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
@@ -5192,8 +5582,14 @@
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5683,19 +6117,25 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6776,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6347,19 +6839,25 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6924,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6996,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>XITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,8 +847,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,8 +1366,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
@@ -1412,10 +1439,13 @@
         <v>100</v>
       </c>
       <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1477,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
@@ -1486,10 +1516,13 @@
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,8 +1624,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1664,8 +1701,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1690,8 +1730,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1699,8 +1739,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1708,11 +1748,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1738,8 +1778,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1801,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
@@ -1812,8 +1855,11 @@
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1880,14 +1926,17 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
+      <c r="Y24" s="3">
+        <v>0</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,8 +2009,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2023,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
@@ -2034,8 +2086,11 @@
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
@@ -2108,8 +2163,11 @@
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2478,8 +2548,11 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2541,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
@@ -2552,8 +2625,11 @@
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,8 +2702,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2689,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
@@ -2700,87 +2779,93 @@
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2921,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2909,8 +2996,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3205,8 +3304,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3458,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,8 +3920,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4057,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4001,8 +4132,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4049,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -4075,8 +4209,11 @@
       <c r="Z58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4087,7 +4224,7 @@
         <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
@@ -4108,7 +4245,7 @@
         <v>700</v>
       </c>
       <c r="M59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
@@ -4123,7 +4260,7 @@
         <v>600</v>
       </c>
       <c r="R59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
@@ -4138,19 +4275,22 @@
         <v>400</v>
       </c>
       <c r="W59" s="3">
+        <v>400</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>100</v>
       </c>
       <c r="Z59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4164,7 +4304,7 @@
         <v>800</v>
       </c>
       <c r="G60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
@@ -4185,7 +4325,7 @@
         <v>700</v>
       </c>
       <c r="N60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
@@ -4200,7 +4340,7 @@
         <v>600</v>
       </c>
       <c r="S60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
@@ -4212,19 +4352,22 @@
         <v>500</v>
       </c>
       <c r="W60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
       </c>
       <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,8 +4748,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4608,7 +4766,7 @@
         <v>800</v>
       </c>
       <c r="G66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
@@ -4629,7 +4787,7 @@
         <v>700</v>
       </c>
       <c r="N66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
@@ -4644,7 +4802,7 @@
         <v>600</v>
       </c>
       <c r="S66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T66" s="3">
         <v>500</v>
@@ -4656,19 +4814,22 @@
         <v>500</v>
       </c>
       <c r="W66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X66" s="3">
         <v>400</v>
       </c>
       <c r="Y66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z66" s="3">
         <v>300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,8 +5162,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5000,7 +5174,7 @@
         <v>-1600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F72" s="3">
         <v>-1500</v>
@@ -5018,7 +5192,7 @@
         <v>-1500</v>
       </c>
       <c r="K72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="L72" s="3">
         <v>-1400</v>
@@ -5036,7 +5210,7 @@
         <v>-1400</v>
       </c>
       <c r="Q72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="R72" s="3">
         <v>-1300</v>
@@ -5051,22 +5225,25 @@
         <v>-1300</v>
       </c>
       <c r="V72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="W72" s="3">
         <v>-1200</v>
       </c>
       <c r="X72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-1000</v>
       </c>
       <c r="Z72" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,8 +5470,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5302,7 +5488,7 @@
         <v>-800</v>
       </c>
       <c r="G76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H76" s="3">
         <v>-700</v>
@@ -5323,7 +5509,7 @@
         <v>-700</v>
       </c>
       <c r="N76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="O76" s="3">
         <v>-600</v>
@@ -5338,7 +5524,7 @@
         <v>-600</v>
       </c>
       <c r="S76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="T76" s="3">
         <v>-500</v>
@@ -5350,19 +5536,22 @@
         <v>-500</v>
       </c>
       <c r="W76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="X76" s="3">
         <v>-400</v>
       </c>
       <c r="Y76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,87 +5624,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5577,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
@@ -5588,8 +5783,11 @@
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6274,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6123,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -6132,10 +6349,13 @@
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6611,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7025,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6845,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
@@ -6854,10 +7100,13 @@
         <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7179,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7002,6 +7254,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>
